--- a/stripped/S10001.mes.bin.xlsx
+++ b/stripped/S10001.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626300B4-0BB8-48C5-9A8E-3535C8266BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7494B8-DFA6-403B-9A5C-3B6D2EC08633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10001.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S10001.mes.bin.xlsx
+++ b/stripped/S10001.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7494B8-DFA6-403B-9A5C-3B6D2EC08633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F80D880-FA3C-4F61-8387-88AB35083A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10001.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
   <si>
     <t>Status</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>Meanwhile, Yayoi-san is just as professional as always.</t>
   </si>
   <si>
     <t>39</t>
@@ -781,7 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1093,7 +1098,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1102,7 +1109,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1116,7 +1123,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1124,7 +1131,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1134,7 +1141,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -1150,7 +1157,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -1158,7 +1165,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1168,13 +1175,13 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1184,7 +1191,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1198,7 +1205,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -1214,7 +1221,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -1230,7 +1237,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
@@ -1246,7 +1253,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -1262,7 +1269,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -1278,7 +1285,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -1294,7 +1301,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1308,7 +1315,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -1324,7 +1331,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1338,7 +1345,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -1346,7 +1353,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1356,7 +1363,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -1372,13 +1379,13 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1388,7 +1395,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1402,7 +1409,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1416,7 +1423,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1430,7 +1437,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1444,7 +1451,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1458,7 +1465,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1472,7 +1479,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1486,7 +1493,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1500,7 +1507,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1514,7 +1521,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1528,7 +1535,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
@@ -1544,7 +1551,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1558,7 +1565,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1572,7 +1579,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
@@ -1588,13 +1595,13 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1604,7 +1611,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1618,7 +1625,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
@@ -1634,7 +1641,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1648,7 +1655,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
@@ -1656,7 +1663,7 @@
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -1666,7 +1673,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1680,7 +1687,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1694,7 +1701,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1708,7 +1715,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1722,7 +1729,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
@@ -1730,7 +1737,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -1740,7 +1747,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1754,7 +1761,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -1770,7 +1777,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
@@ -1778,7 +1785,7 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -1788,7 +1795,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1802,7 +1809,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -1818,7 +1825,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -1834,7 +1841,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1848,7 +1855,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -1864,7 +1871,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1878,7 +1885,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1892,7 +1899,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
@@ -1908,7 +1915,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1922,7 +1929,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
@@ -1938,7 +1945,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1952,7 +1959,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1966,7 +1973,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -1974,7 +1981,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -1984,7 +1991,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -1992,7 +1999,7 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -2002,7 +2009,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
@@ -2018,7 +2025,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -2034,7 +2041,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -2050,7 +2057,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2064,7 +2071,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
@@ -2072,7 +2079,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -2082,7 +2089,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -2098,7 +2105,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2112,7 +2119,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
@@ -2128,7 +2135,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
@@ -2144,7 +2151,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
@@ -2160,7 +2167,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -2168,7 +2175,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -2178,13 +2185,13 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -2194,7 +2201,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2208,7 +2215,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
